--- a/scratchwork/variablenameswork.xlsx
+++ b/scratchwork/variablenameswork.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="889">
   <si>
     <t>ResponseId</t>
   </si>
@@ -510,6 +510,9 @@
     <t xml:space="preserve"> "medsalaryguess"</t>
   </si>
   <si>
+    <t xml:space="preserve">      "salaryrequest2"</t>
+  </si>
+  <si>
     <t xml:space="preserve">  "Q23"</t>
   </si>
   <si>
@@ -1848,6 +1851,9 @@
     <t xml:space="preserve">[391] "happiness_1_3"                  "AllDonations"  </t>
   </si>
   <si>
+    <t>LinguistTestCloistered"</t>
+  </si>
+  <si>
     <t xml:space="preserve"> "LinguistTestCaprice"</t>
   </si>
   <si>
@@ -2689,12 +2695,6 @@
   </si>
   <si>
     <t xml:space="preserve"> "CostlyPunisherIndirect"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "salaryrequest2"</t>
-  </si>
-  <si>
-    <t>LinguistTestCloistered</t>
   </si>
 </sst>
 </file>
@@ -3041,24 +3041,21 @@
   <dimension ref="A1:KH298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:294" x14ac:dyDescent="0.2">
@@ -3069,376 +3066,376 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H2" t="s">
+        <v>610</v>
+      </c>
+      <c r="I2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" t="s">
+        <v>612</v>
+      </c>
+      <c r="K2" t="s">
+        <v>613</v>
+      </c>
+      <c r="L2" t="s">
+        <v>614</v>
+      </c>
+      <c r="M2" t="s">
+        <v>870</v>
+      </c>
+      <c r="N2" t="s">
+        <v>871</v>
+      </c>
+      <c r="O2" t="s">
+        <v>872</v>
+      </c>
+      <c r="P2" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>874</v>
+      </c>
+      <c r="R2" t="s">
+        <v>845</v>
+      </c>
+      <c r="S2" t="s">
+        <v>848</v>
+      </c>
+      <c r="T2" t="s">
+        <v>875</v>
+      </c>
+      <c r="U2" t="s">
+        <v>876</v>
+      </c>
+      <c r="V2" t="s">
+        <v>877</v>
+      </c>
+      <c r="W2" t="s">
+        <v>878</v>
+      </c>
+      <c r="X2" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>880</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>881</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>882</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>884</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>885</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>886</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>887</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>888</v>
       </c>
-      <c r="F2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H2" t="s">
-        <v>608</v>
-      </c>
-      <c r="I2" t="s">
-        <v>609</v>
-      </c>
-      <c r="J2" t="s">
-        <v>610</v>
-      </c>
-      <c r="K2" t="s">
-        <v>611</v>
-      </c>
-      <c r="L2" t="s">
-        <v>612</v>
-      </c>
-      <c r="M2" t="s">
-        <v>868</v>
-      </c>
-      <c r="N2" t="s">
-        <v>869</v>
-      </c>
-      <c r="O2" t="s">
-        <v>870</v>
-      </c>
-      <c r="P2" t="s">
-        <v>871</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>872</v>
-      </c>
-      <c r="R2" t="s">
-        <v>843</v>
-      </c>
-      <c r="S2" t="s">
-        <v>846</v>
-      </c>
-      <c r="T2" t="s">
-        <v>873</v>
-      </c>
-      <c r="U2" t="s">
-        <v>874</v>
-      </c>
-      <c r="V2" t="s">
-        <v>875</v>
-      </c>
-      <c r="W2" t="s">
-        <v>876</v>
-      </c>
-      <c r="X2" t="s">
-        <v>877</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>878</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>879</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>880</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>881</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>882</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>883</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>617</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>884</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>885</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>886</v>
-      </c>
       <c r="AK2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AL2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AM2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AN2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AO2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AP2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AQ2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AR2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AS2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AT2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AU2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AV2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AW2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AX2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AY2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AZ2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BA2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="BB2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BC2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BD2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BE2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BF2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BG2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BH2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BI2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BJ2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BK2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BL2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BM2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BN2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BO2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BP2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BQ2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BR2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BS2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BT2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BU2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BV2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="BW2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BX2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BY2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BZ2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="CA2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="CB2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="CC2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="CD2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="CE2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="CF2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="CG2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="CH2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="CI2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="CJ2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="CK2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="CL2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="CM2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="CN2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CO2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CP2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CQ2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CR2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CS2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="CT2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="CU2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="CV2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="CW2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="CX2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="CY2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="CZ2" t="s">
         <v>99</v>
       </c>
       <c r="DA2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="DB2" t="s">
         <v>101</v>
       </c>
       <c r="DC2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="DD2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="DE2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="DF2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="DG2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="DH2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="DI2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="DJ2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="DK2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="DL2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="DM2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="DN2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="DO2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="DP2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="DQ2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="DR2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="DS2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="DT2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="DU2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="DV2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DW2" t="s">
         <v>122</v>
       </c>
       <c r="DX2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="DY2" t="s">
         <v>124</v>
@@ -3447,7 +3444,7 @@
         <v>125</v>
       </c>
       <c r="EA2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="EB2" t="s">
         <v>127</v>
@@ -3459,7 +3456,7 @@
         <v>129</v>
       </c>
       <c r="EE2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="EF2" t="s">
         <v>131</v>
@@ -3471,7 +3468,7 @@
         <v>133</v>
       </c>
       <c r="EI2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="EJ2" t="s">
         <v>135</v>
@@ -3480,31 +3477,31 @@
         <v>136</v>
       </c>
       <c r="EL2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="EM2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="EN2" t="s">
         <v>139</v>
       </c>
       <c r="EO2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="EP2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="EQ2" t="s">
         <v>142</v>
       </c>
       <c r="ER2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="ES2" t="s">
         <v>144</v>
       </c>
       <c r="ET2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="EU2" t="s">
         <v>146</v>
@@ -3519,7 +3516,7 @@
         <v>149</v>
       </c>
       <c r="EY2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="EZ2" t="s">
         <v>151</v>
@@ -3528,2029 +3525,436 @@
         <v>152</v>
       </c>
       <c r="FB2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="FC2" t="s">
         <v>154</v>
       </c>
       <c r="FD2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="FE2" t="s">
         <v>156</v>
       </c>
       <c r="FF2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="FG2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="FH2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="FI2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="FJ2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="FK2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="FL2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="FM2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="FN2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="FO2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="FP2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="FQ2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="FR2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="FS2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="FT2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="FU2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="FV2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="FW2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="FX2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="FY2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="FZ2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="GA2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="GB2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="GC2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="GD2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="GE2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="GF2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="GG2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="GH2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="GI2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="GJ2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GK2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="GL2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="GM2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="GN2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="GO2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="GP2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="GQ2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="GR2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="GS2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="GT2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="GU2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="GV2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="GW2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="GX2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="GY2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="GZ2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="HA2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="HB2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="HC2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="HD2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="HE2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="HF2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="HG2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="HH2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="HI2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="HJ2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="HK2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="HL2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="HM2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="HN2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="HO2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="HP2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="HQ2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="HR2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="HS2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="HT2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="HU2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="HV2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="HW2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="HX2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="HY2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="HZ2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="IA2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="IB2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="IC2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ID2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="IE2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="IF2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="IG2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IH2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="II2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="IJ2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="IK2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IL2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="IM2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="IN2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="IO2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="IP2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="IQ2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="IR2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="IS2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="IT2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="IU2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="IV2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="IW2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="IX2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="IY2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="IZ2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="JA2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="JB2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="JC2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="JD2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="JE2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="JF2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="JG2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="JH2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="JI2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="JJ2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="JK2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="JL2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="JM2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JN2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="JO2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="JP2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="JQ2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="JR2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="JS2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="JT2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="JU2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="JV2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="JW2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="JX2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="JY2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="JZ2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="KA2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="KB2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="KC2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="KD2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="KE2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="KF2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="KG2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="KH2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>77</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>102</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>104</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>106</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>109</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>112</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>113</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>114</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>115</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>118</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>119</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>120</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>121</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>122</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>123</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>124</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>125</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>126</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>127</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>128</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>129</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>130</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>131</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>132</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>134</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>135</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>136</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>137</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>138</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>865</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>140</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>141</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>142</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>143</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>144</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>146</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>147</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>148</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>150</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>152</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>153</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>154</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>155</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>156</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>157</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>158</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>159</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>887</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>161</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>162</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>163</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>164</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>165</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>166</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>168</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>169</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>170</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>171</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>172</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>173</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>174</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>175</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>176</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>177</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>178</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>179</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>866</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>180</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>181</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>182</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>183</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>184</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>185</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>186</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>187</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>188</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>189</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>190</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>191</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>192</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>193</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>194</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>195</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>196</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>197</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>198</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>199</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>200</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>201</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>202</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>203</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>204</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>205</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>206</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>207</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>208</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>209</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>210</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>211</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>212</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>213</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>214</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>215</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>216</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>217</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>218</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>219</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>220</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>221</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>222</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>223</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>224</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>225</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>226</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>227</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>228</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>229</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>230</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>231</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>232</v>
-      </c>
-      <c r="IF3" t="s">
-        <v>233</v>
-      </c>
-      <c r="IG3" t="s">
-        <v>234</v>
-      </c>
-      <c r="IH3" t="s">
-        <v>235</v>
-      </c>
-      <c r="II3" t="s">
-        <v>236</v>
-      </c>
-      <c r="IJ3" t="s">
-        <v>237</v>
-      </c>
-      <c r="IK3" t="s">
-        <v>238</v>
-      </c>
-      <c r="IL3" t="s">
-        <v>239</v>
-      </c>
-      <c r="IM3" t="s">
-        <v>240</v>
-      </c>
-      <c r="IN3" t="s">
-        <v>241</v>
-      </c>
-      <c r="IO3" t="s">
-        <v>242</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>243</v>
-      </c>
-      <c r="IQ3" t="s">
-        <v>244</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>245</v>
-      </c>
-      <c r="IS3" t="s">
-        <v>246</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>247</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>248</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>249</v>
-      </c>
-      <c r="IW3" t="s">
-        <v>250</v>
-      </c>
-      <c r="IX3" t="s">
-        <v>251</v>
-      </c>
-      <c r="IY3" t="s">
-        <v>252</v>
-      </c>
-      <c r="IZ3" t="s">
-        <v>253</v>
-      </c>
-      <c r="JA3" t="s">
-        <v>254</v>
-      </c>
-      <c r="JB3" t="s">
-        <v>255</v>
-      </c>
-      <c r="JC3" t="s">
-        <v>256</v>
-      </c>
-      <c r="JD3" t="s">
-        <v>257</v>
-      </c>
-      <c r="JE3" t="s">
-        <v>258</v>
-      </c>
-      <c r="JF3" t="s">
-        <v>259</v>
-      </c>
-      <c r="JG3" t="s">
-        <v>260</v>
-      </c>
-      <c r="JH3" t="s">
-        <v>261</v>
-      </c>
-      <c r="JI3" t="s">
-        <v>262</v>
-      </c>
-      <c r="JJ3" t="s">
-        <v>263</v>
-      </c>
-      <c r="JK3" t="s">
-        <v>264</v>
-      </c>
-      <c r="JL3" t="s">
-        <v>265</v>
-      </c>
-      <c r="JM3" t="s">
-        <v>266</v>
-      </c>
-      <c r="JN3" t="s">
-        <v>267</v>
-      </c>
-      <c r="JO3" t="s">
-        <v>268</v>
-      </c>
-      <c r="JP3" t="s">
-        <v>269</v>
-      </c>
-      <c r="JQ3" t="s">
-        <v>270</v>
-      </c>
-      <c r="JR3" t="s">
-        <v>271</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>272</v>
-      </c>
-      <c r="JT3" t="s">
-        <v>273</v>
-      </c>
-      <c r="JU3" t="s">
-        <v>274</v>
-      </c>
-      <c r="JV3" t="s">
-        <v>275</v>
-      </c>
-      <c r="JW3" t="s">
-        <v>276</v>
-      </c>
-      <c r="JX3" t="s">
-        <v>277</v>
-      </c>
-      <c r="JY3" t="s">
-        <v>278</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>279</v>
-      </c>
-      <c r="KA3" t="s">
-        <v>280</v>
-      </c>
-      <c r="KB3" t="s">
-        <v>281</v>
-      </c>
-      <c r="KC3" t="s">
-        <v>282</v>
-      </c>
-      <c r="KD3" t="s">
-        <v>283</v>
-      </c>
-      <c r="KE3" t="s">
-        <v>284</v>
-      </c>
-      <c r="KF3" t="s">
-        <v>285</v>
-      </c>
-      <c r="KG3" t="s">
-        <v>286</v>
-      </c>
-      <c r="KH3" t="s">
-        <v>867</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>865</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
         <v>289</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>290</v>
-      </c>
-      <c r="P4" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>292</v>
-      </c>
-      <c r="R4" t="s">
-        <v>293</v>
-      </c>
-      <c r="S4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" t="s">
-        <v>294</v>
-      </c>
-      <c r="U4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W4" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>387</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>390</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>391</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>392</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>396</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>397</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>398</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>399</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>400</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>401</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>402</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>403</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>404</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>405</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>406</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>407</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>408</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>409</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>410</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>411</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>412</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>413</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>414</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>415</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>416</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>417</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>418</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>419</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>420</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>421</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>422</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>423</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>424</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>425</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>426</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>427</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>428</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>429</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>430</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>431</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>432</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>433</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>434</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>435</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>436</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>437</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>438</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>439</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>440</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>441</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>442</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>443</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>444</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>445</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>446</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>447</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>448</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>449</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>450</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>451</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>452</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>453</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>454</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>299</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>300</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>455</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>456</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>457</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>458</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>459</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>460</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>461</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>462</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>463</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>464</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>465</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>466</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>467</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>468</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>469</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>470</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>471</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>472</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>473</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>122</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>301</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>124</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>125</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>302</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>127</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>128</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>129</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>303</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>131</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>132</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>304</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>135</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>136</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>860</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>629</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>139</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>305</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>306</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>142</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>307</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>144</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>308</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>147</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>309</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>152</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>310</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>154</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>311</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>156</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>312</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>861</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>862</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>313</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>314</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>863</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>864</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>315</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>316</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>165</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>166</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>317</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>168</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>318</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>170</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>319</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>172</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>320</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>174</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>321</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>322</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>323</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>324</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>325</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>326</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>327</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>328</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>329</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>331</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>332</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>333</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>334</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>335</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>336</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>337</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>338</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>339</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>340</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>341</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>342</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>343</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>344</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>345</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>346</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>347</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>348</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>349</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>350</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>351</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>352</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>353</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>354</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>355</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>356</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>357</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>358</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>359</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>360</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>361</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>362</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>363</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>364</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>365</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>366</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>367</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>368</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>369</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>370</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>371</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>372</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>373</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>374</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>375</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>376</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>377</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>378</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>379</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>381</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>382</v>
-      </c>
-      <c r="II4" t="s">
-        <v>383</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>384</v>
-      </c>
-      <c r="IK4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -5558,7 +3962,7 @@
     </row>
     <row r="6" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -5566,7 +3970,7 @@
     </row>
     <row r="7" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -5574,7 +3978,7 @@
     </row>
     <row r="8" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -5582,15 +3986,15 @@
     </row>
     <row r="9" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -5598,7 +4002,7 @@
     </row>
     <row r="11" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -5606,39 +4010,39 @@
     </row>
     <row r="12" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:294" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -5646,15 +4050,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -5662,7 +4066,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -5670,7 +4074,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -5678,7 +4082,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -5686,15 +4090,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -5702,7 +4106,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -5710,23 +4114,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -5734,7 +4138,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -5742,151 +4146,151 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -5894,290 +4298,290 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>887</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -6185,140 +4589,140 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>867</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -6326,15 +4730,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -6342,167 +4746,167 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
@@ -6510,15 +4914,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
@@ -6526,7 +4930,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
@@ -6534,15 +4938,15 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -6550,7 +4954,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -6558,7 +4962,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
@@ -6566,15 +4970,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
@@ -6582,7 +4986,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
@@ -6590,7 +4994,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
@@ -6598,15 +5002,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
@@ -6614,7 +5018,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
@@ -6622,23 +5026,23 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>867</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
@@ -6646,23 +5050,23 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
@@ -6670,15 +5074,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
@@ -6686,15 +5090,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
@@ -6702,7 +5106,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
@@ -6710,7 +5114,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
@@ -6718,7 +5122,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
@@ -6726,15 +5130,15 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
@@ -6742,7 +5146,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
@@ -6750,15 +5154,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>154</v>
@@ -6766,15 +5170,15 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>156</v>
@@ -6782,1831 +5186,1831 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D179" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E179" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D180" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E180" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D181" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E181" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D182" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E182" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>280</v>
+        <v>868</v>
       </c>
       <c r="B183" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D183" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E183" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D184" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E184" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D185" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E185" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D186" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E186" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D187" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E187" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D188" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E188" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D189" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E189" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D190" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E190" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D191" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E191" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D192" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E192" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D193" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E193" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D194" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E194" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D195" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E195" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D196" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E196" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D197" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E197" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D198" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E198" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D199" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E199" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D200" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E200" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D201" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E201" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D202" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E202" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D203" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E203" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D204" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E204" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D205" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E205" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D206" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E206" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D207" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E207" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>866</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D208" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E208" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D209" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E209" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D210" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E210" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E211" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D212" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E212" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D213" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E213" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D214" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E214" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E215" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D216" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E216" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D217" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E217" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D218" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E218" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D219" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E219" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D220" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E220" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D221" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E221" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D222" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E222" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D223" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E223" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D224" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E224" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D225" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E225" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D226" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E226" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D227" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E227" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D228" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E228" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B229" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D229" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E229" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B230" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D230" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E230" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D231" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E231" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B232" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D232" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E232" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D233" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E233" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D234" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E234" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D235" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E235" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B236" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D236" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E236" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D237" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E237" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D238" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E238" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D239" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E239" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B240" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D240" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E240" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D241" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E241" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D242" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E242" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>888</v>
+        <v>607</v>
       </c>
       <c r="D243" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E243" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B244" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D244" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E244" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D245" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E245" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D246" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E246" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B247" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D247" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E247" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D248" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E248" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B249" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D249" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E249" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D250" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E250" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D251" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E251" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D252" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E252" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C253" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D253" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E253" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="B254" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C254" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D254" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E254" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B255" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C255" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D255" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E255" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="B256" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C256" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D256" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E256" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C257" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D257" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E257" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>147</v>
+        <v>255</v>
       </c>
       <c r="B258" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C258" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D258" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E258" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C259" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D259" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E259" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C260" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D260" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E260" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="B261" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C261" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D261" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E261" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C262" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D262" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E262" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="B263" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C263" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D263" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E263" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="B264" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C264" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D264" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E264" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="B265" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C265" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D265" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E265" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="B266" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C266" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D266" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E266" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C267" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D267" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E267" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="B268" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C268" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D268" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E268" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="B269" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C269" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D269" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E269" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C270" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D270" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E270" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="B271" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D271" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E271" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="B272" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="D272" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E272" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="D273" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E273" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="B274" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C274" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D274" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E274" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C275" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D275" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E275" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C276" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D276" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E276" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="B277" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D277" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E277" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="B278" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D278" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E278" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="B279" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D279" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E279" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D280" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E280" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="B281" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D281" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E281" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D282" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E282" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D283" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E283" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D284" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E284" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D285" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E285" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D286" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E286" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D287" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E287" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D288" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E288" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D289" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E289" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D290" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E290" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>11</v>
+        <v>869</v>
       </c>
       <c r="B291" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D291" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E291" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D292" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E292" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D293" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E293" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D294" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E294" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -8619,32 +7023,29 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D296" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E296" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D297" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E297" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D298" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E298" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A291">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -8662,662 +7063,662 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
